--- a/Full_dataset from STATA.xlsx
+++ b/Full_dataset from STATA.xlsx
@@ -27155,6 +27155,9 @@
       <c r="E704" s="1">
         <v>3.0767914</v>
       </c>
+      <c r="H704" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I704" s="1">
         <v>7.850809498168027E9</v>
       </c>
@@ -27196,6 +27199,9 @@
       <c r="G705" s="1">
         <v>174.0</v>
       </c>
+      <c r="H705" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I705" s="1">
         <v>8.623691300040789E9</v>
       </c>
@@ -27240,6 +27246,9 @@
       <c r="G706" s="1">
         <v>230.0</v>
       </c>
+      <c r="H706" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I706" s="1">
         <v>1.0131187261442078E10</v>
       </c>
@@ -27284,6 +27293,9 @@
       <c r="E707" s="1">
         <v>3.2605049</v>
       </c>
+      <c r="H707" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I707" s="1">
         <v>1.2401139453973831E10</v>
       </c>
@@ -27322,6 +27334,9 @@
       <c r="E708" s="1">
         <v>3.2109682</v>
       </c>
+      <c r="H708" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I708" s="1">
         <v>1.5280861834602404E10</v>
       </c>
@@ -27360,6 +27375,9 @@
       <c r="E709" s="1">
         <v>3.3515127000000002</v>
       </c>
+      <c r="H709" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I709" s="1">
         <v>1.9707616772799637E10</v>
       </c>
@@ -27398,6 +27416,9 @@
       <c r="E710" s="1">
         <v>3.1908317999999998</v>
       </c>
+      <c r="H710" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I710" s="1">
         <v>2.7066912635222847E10</v>
       </c>
@@ -27436,6 +27457,9 @@
       <c r="E711" s="1">
         <v>2.978993</v>
       </c>
+      <c r="H711" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I711" s="1">
         <v>3.2437389116038006E10</v>
       </c>
@@ -27477,6 +27501,9 @@
       <c r="G712" s="1">
         <v>54.0</v>
       </c>
+      <c r="H712" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I712" s="1">
         <v>2.993379033434179E10</v>
       </c>
@@ -27518,6 +27545,9 @@
       <c r="E713" s="1">
         <v>2.9523083000000003</v>
       </c>
+      <c r="H713" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I713" s="1">
         <v>3.1952763089330025E10</v>
       </c>
@@ -27553,6 +27583,9 @@
       <c r="E714" s="1">
         <v>3.049957</v>
       </c>
+      <c r="H714" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I714" s="1">
         <v>4.331072141408288E10</v>
       </c>
@@ -27588,6 +27621,9 @@
       <c r="E715" s="1">
         <v>3.2602139</v>
       </c>
+      <c r="H715" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I715" s="1">
         <v>4.7648211133218285E10</v>
       </c>
@@ -27623,6 +27659,9 @@
       <c r="F716" s="1">
         <v>10.0</v>
       </c>
+      <c r="H716" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I716" s="1">
         <v>5.561222823351786E10</v>
       </c>
@@ -27661,6 +27700,9 @@
       <c r="E717" s="1">
         <v>3.1407133</v>
       </c>
+      <c r="H717" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I717" s="1">
         <v>6.458933497880132E10</v>
       </c>
@@ -27696,6 +27738,9 @@
       <c r="E718" s="1">
         <v>3.1285438</v>
       </c>
+      <c r="H718" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I718" s="1">
         <v>7.429661848108823E10</v>
       </c>
@@ -27731,6 +27776,9 @@
       <c r="E719" s="1">
         <v>3.2147587</v>
       </c>
+      <c r="H719" s="3">
+        <v>-3.0</v>
+      </c>
       <c r="I719" s="1">
         <v>8.177079197098204E10</v>
       </c>
@@ -27768,6 +27816,9 @@
       </c>
       <c r="F720" s="1">
         <v>10.0</v>
+      </c>
+      <c r="H720" s="3">
+        <v>1.0</v>
       </c>
       <c r="I720" s="1">
         <v>8.426934832734543E10</v>

--- a/Full_dataset from STATA.xlsx
+++ b/Full_dataset from STATA.xlsx
@@ -33598,6 +33598,9 @@
       <c r="G876" s="1">
         <v>46.0</v>
       </c>
+      <c r="H876" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I876" s="1">
         <v>5.276674615217862E10</v>
       </c>
@@ -33627,6 +33630,9 @@
       <c r="E877" s="1">
         <v>4.114814</v>
       </c>
+      <c r="H877" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I877" s="1">
         <v>5.7730380599528465E10</v>
       </c>
@@ -33650,6 +33656,9 @@
       <c r="E878" s="1">
         <v>4.056373</v>
       </c>
+      <c r="H878" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I878" s="1">
         <v>6.49417130573775E10</v>
       </c>
@@ -33676,6 +33685,9 @@
       <c r="G879" s="1">
         <v>51.0</v>
       </c>
+      <c r="H879" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I879" s="1">
         <v>7.42945082395524E10</v>
       </c>
@@ -33705,6 +33717,9 @@
       <c r="G880" s="1">
         <v>51.0</v>
       </c>
+      <c r="H880" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I880" s="1">
         <v>5.1772232494854E10</v>
       </c>
@@ -33737,6 +33752,9 @@
       <c r="G881" s="1">
         <v>24.0</v>
       </c>
+      <c r="H881" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I881" s="1">
         <v>4.502107795532797E10</v>
       </c>
@@ -33769,6 +33787,9 @@
       <c r="G882" s="1">
         <v>0.0</v>
       </c>
+      <c r="H882" s="2">
+        <v>-4.0</v>
+      </c>
       <c r="I882" s="1">
         <v>3.3128480498729603E10</v>
       </c>
@@ -54887,6 +54908,9 @@
       <c r="G1442" s="1">
         <v>54.0</v>
       </c>
+      <c r="H1442" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1442" s="1">
         <v>3.506410550083445E10</v>
       </c>
@@ -54919,6 +54943,9 @@
       <c r="G1443" s="1">
         <v>2.0</v>
       </c>
+      <c r="H1443" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1443" s="1">
         <v>3.9552513316073425E10</v>
       </c>
@@ -54954,6 +54981,9 @@
       <c r="G1444" s="1">
         <v>298.0</v>
       </c>
+      <c r="H1444" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1444" s="1">
         <v>4.542785469325543E10</v>
       </c>
@@ -54989,6 +55019,9 @@
       <c r="G1445" s="1">
         <v>164.0</v>
       </c>
+      <c r="H1445" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1445" s="1">
         <v>5.7633255618273094E10</v>
       </c>
@@ -55030,6 +55063,9 @@
       <c r="G1446" s="1">
         <v>16.0</v>
       </c>
+      <c r="H1446" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1446" s="1">
         <v>6.6371664817043625E10</v>
       </c>
@@ -55071,6 +55107,9 @@
       <c r="G1447" s="1">
         <v>2.0</v>
       </c>
+      <c r="H1447" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1447" s="1">
         <v>7.741442553224516E10</v>
       </c>
@@ -55112,6 +55151,9 @@
       <c r="G1448" s="1">
         <v>168.0</v>
       </c>
+      <c r="H1448" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1448" s="1">
         <v>9.913030409912743E10</v>
       </c>
@@ -55153,6 +55195,9 @@
       <c r="G1449" s="1">
         <v>55.0</v>
       </c>
+      <c r="H1449" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1449" s="1">
         <v>1.0601465977022217E11</v>
       </c>
@@ -55194,6 +55239,9 @@
       <c r="G1450" s="1">
         <v>151.0</v>
       </c>
+      <c r="H1450" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1450" s="1">
         <v>1.1593174969724115E11</v>
       </c>
@@ -55235,6 +55283,9 @@
       <c r="G1451" s="1">
         <v>985.0</v>
       </c>
+      <c r="H1451" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1451" s="1">
         <v>1.3553943855970941E11</v>
       </c>
@@ -55273,6 +55324,9 @@
       <c r="G1452" s="1">
         <v>768.0</v>
       </c>
+      <c r="H1452" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1452" s="1">
         <v>1.5582000192049164E11</v>
       </c>
@@ -55311,6 +55365,9 @@
       <c r="G1453" s="1">
         <v>313.0</v>
       </c>
+      <c r="H1453" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1453" s="1">
         <v>1.7122202511738086E11</v>
       </c>
@@ -55349,6 +55406,9 @@
       <c r="G1454" s="1">
         <v>1062.0</v>
       </c>
+      <c r="H1454" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1454" s="1">
         <v>1.8620465292226215E11</v>
       </c>
@@ -55387,6 +55447,9 @@
       <c r="G1455" s="1">
         <v>742.0</v>
       </c>
+      <c r="H1455" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1455" s="1">
         <v>1.9324110870953622E11</v>
       </c>
@@ -55425,6 +55488,9 @@
       <c r="G1456" s="1">
         <v>706.0</v>
       </c>
+      <c r="H1456" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1456" s="1">
         <v>2.052761721349014E11</v>
       </c>
@@ -55466,6 +55532,9 @@
       <c r="G1457" s="1">
         <v>467.0</v>
       </c>
+      <c r="H1457" s="2">
+        <v>-7.0</v>
+      </c>
       <c r="I1457" s="1">
         <v>2.2377986581518256E11</v>
       </c>
@@ -55506,6 +55575,9 @@
       </c>
       <c r="G1458" s="1">
         <v>335.0</v>
+      </c>
+      <c r="H1458" s="2">
+        <v>-7.0</v>
       </c>
       <c r="I1458" s="1">
         <v>2.452136863691568E11</v>

--- a/Full_dataset from STATA.xlsx
+++ b/Full_dataset from STATA.xlsx
@@ -569,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -579,6 +579,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -594,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -603,6 +604,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10787,16 +10791,19 @@
       <c r="H254" s="1">
         <v>9.0</v>
       </c>
-      <c r="J254" s="1">
+      <c r="I254" s="4">
+        <v>3.51303406738189E10</v>
+      </c>
+      <c r="J254">
         <v>1.1218384552624421E7</v>
       </c>
-      <c r="N254" s="1">
+      <c r="N254">
         <v>3.295836925506592</v>
       </c>
-      <c r="P254" s="1">
+      <c r="P254">
         <v>16.233064651489258</v>
       </c>
-      <c r="R254" s="2">
+      <c r="R254" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -10819,6 +10826,9 @@
       <c r="H255" s="1">
         <v>9.0</v>
       </c>
+      <c r="I255" s="4">
+        <v>4.68165891647856E10</v>
+      </c>
       <c r="J255" s="1">
         <v>1.936173053812258E7</v>
       </c>
@@ -10848,6 +10858,9 @@
       <c r="H256" s="1">
         <v>9.0</v>
       </c>
+      <c r="I256" s="4">
+        <v>5.73320151477527E10</v>
+      </c>
       <c r="J256" s="1">
         <v>8611111.11111111</v>
       </c>
@@ -10877,6 +10890,9 @@
       <c r="H257" s="1">
         <v>9.0</v>
       </c>
+      <c r="I257" s="2">
+        <v>6.278530531E10</v>
+      </c>
       <c r="J257" s="1">
         <v>6275626.4236902045</v>
       </c>
@@ -10906,6 +10922,9 @@
       <c r="H258" s="1">
         <v>10.0</v>
       </c>
+      <c r="I258" s="4">
+        <v>7.07080981056329E10</v>
+      </c>
       <c r="J258" s="1">
         <v>4855916.615573267</v>
       </c>
@@ -10935,6 +10954,9 @@
       <c r="H259" s="1">
         <v>10.0</v>
       </c>
+      <c r="I259" s="4">
+        <v>8.64540815767862E10</v>
+      </c>
       <c r="J259" s="1">
         <v>4480124.1494568465</v>
       </c>
@@ -10964,6 +10986,9 @@
       <c r="H260" s="1">
         <v>10.0</v>
       </c>
+      <c r="I260" s="4">
+        <v>1.00469509301304E11</v>
+      </c>
       <c r="J260" s="1">
         <v>1210526.3157894737</v>
       </c>
@@ -10996,6 +11021,9 @@
       <c r="H261" s="1">
         <v>10.0</v>
       </c>
+      <c r="I261" s="4">
+        <v>8.90462892470131E10</v>
+      </c>
       <c r="J261" s="1">
         <v>1156203.0292519366</v>
       </c>
@@ -11031,6 +11059,9 @@
       <c r="H262" s="1">
         <v>10.0</v>
       </c>
+      <c r="I262" s="4">
+        <v>9.03107183490156E10</v>
+      </c>
       <c r="J262" s="1">
         <v>1432993.2362719248</v>
       </c>
@@ -11066,6 +11097,9 @@
       <c r="H263" s="1">
         <v>10.0</v>
       </c>
+      <c r="I263" s="2">
+        <v>9.91228028741718E10</v>
+      </c>
       <c r="J263" s="1">
         <v>1570015.7338727803</v>
       </c>
@@ -11092,6 +11126,9 @@
       <c r="H264" s="1">
         <v>10.0</v>
       </c>
+      <c r="I264" s="4">
+        <v>9.45347306806023E10</v>
+      </c>
       <c r="J264" s="1">
         <v>1103022.2810500772</v>
       </c>
@@ -11118,6 +11155,9 @@
       <c r="H265" s="1">
         <v>10.0</v>
       </c>
+      <c r="I265" s="4">
+        <v>9.88486415546311E10</v>
+      </c>
       <c r="J265" s="1">
         <v>1028300.6606736705</v>
       </c>
@@ -11144,6 +11184,9 @@
       <c r="H266" s="1">
         <v>10.0</v>
       </c>
+      <c r="I266" s="4">
+        <v>1.01189715749374E11</v>
+      </c>
       <c r="J266" s="1">
         <v>478113.0471738206</v>
       </c>
@@ -11170,6 +11213,9 @@
       <c r="H267" s="1">
         <v>10.0</v>
       </c>
+      <c r="I267" s="4">
+        <v>8.84675552437256E10</v>
+      </c>
       <c r="J267" s="1">
         <v>988637.4133949191</v>
       </c>
@@ -11196,6 +11242,9 @@
       <c r="H268" s="1">
         <v>10.0</v>
       </c>
+      <c r="I268" s="4">
+        <v>8.96552539764258E10</v>
+      </c>
       <c r="J268" s="1">
         <v>1040149.7815685458</v>
       </c>
@@ -11225,6 +11274,9 @@
       <c r="H269" s="1">
         <v>10.0</v>
       </c>
+      <c r="I269" s="4">
+        <v>9.54944249785166E10</v>
+      </c>
       <c r="J269" s="1">
         <v>975936.8614630159</v>
       </c>
@@ -11257,6 +11309,9 @@
       <c r="H270" s="1">
         <v>10.0</v>
       </c>
+      <c r="I270" s="4">
+        <v>1.05701930962982E11</v>
+      </c>
       <c r="J270" s="1">
         <v>1276412.0</v>
       </c>
@@ -11285,6 +11340,9 @@
       </c>
       <c r="F271" s="1">
         <v>36.0</v>
+      </c>
+      <c r="I271" s="4">
+        <v>1.05079673009733E11</v>
       </c>
       <c r="M271" s="1">
         <v>3.5835189819335938</v>
